--- a/B1.xlsx
+++ b/B1.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pippo\OneDrive - Università di Pavia\Documenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17F1C67-1A7D-4B83-A956-25033CDBCE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF4C9E6-A1A3-42C8-9C50-27BC5366A58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0993DFE3-DA4B-4782-B3B1-20721CF2A70B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{0993DFE3-DA4B-4782-B3B1-20721CF2A70B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
+    <sheet name="Foglio4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Modalità Geiger: alimentato in maniera tale che si perda l'informazione sull'energia rilasciata. Il segnale della cella è acceso-spento. La tensione in uscita è proporzionale al numero di celle che si accendono</t>
   </si>
@@ -53,12 +55,55 @@
   <si>
     <t>Sqrt(I)</t>
   </si>
+  <si>
+    <t>Vsipm [mv]</t>
+  </si>
+  <si>
+    <t>f max</t>
+  </si>
+  <si>
+    <t>f min</t>
+  </si>
+  <si>
+    <t>f avg</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>f2 max</t>
+  </si>
+  <si>
+    <t>f2 min</t>
+  </si>
+  <si>
+    <t>f2 avg</t>
+  </si>
+  <si>
+    <t>f2 err</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>Flusso raggi cosmici</t>
+  </si>
+  <si>
+    <t>In 2 minuti:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,15 +129,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1033,6 +1081,1029 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio3!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio3!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33CB-4342-BFC1-C92CF847D99F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="828347096"/>
+        <c:axId val="828350336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="828347096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828350336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="828350336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828347096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio3!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio3!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D9B-40F3-8029-D4462FC7C736}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="828347096"/>
+        <c:axId val="828350336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="828347096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828350336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="828350336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828347096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio3!$A$6:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio3!$K$6:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.6363636363636362E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7622950819672137E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11304347826086956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4268292682926829E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7762-4532-9CE9-36BEAFCE5843}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="833705136"/>
+        <c:axId val="833703696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="833705136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833703696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="833703696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833705136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1113,6 +2184,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1630,6 +2821,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2214,6 +4953,121 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85578FD1-DCE9-A3A8-E327-59F631D78986}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E47B313-FD3C-469F-B0FA-7916F1C7A93A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEAB94F6-45A8-4D1D-195C-53A33F714675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2579,7 +5433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DC5676-8BC0-404A-B210-00E54F0E1C17}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -3070,4 +5924,487 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9334749-835A-43E6-B316-4FAB8B1F897F}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>1.04</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2">
+        <v>700</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(C2:D2)</f>
+        <v>600</v>
+      </c>
+      <c r="F2">
+        <f>D2-E2</f>
+        <v>100</v>
+      </c>
+      <c r="I2" t="e">
+        <f>AVERAGE(G2:H2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" t="e">
+        <f>H2-I2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K2" t="e">
+        <f>I2/E2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>0.84</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="0">AVERAGE(C3:D3)</f>
+        <v>25.5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="1">D3-E3</f>
+        <v>24.5</v>
+      </c>
+      <c r="I3" t="e">
+        <f t="shared" ref="I3:I12" si="2">AVERAGE(G3:H3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" t="e">
+        <f t="shared" ref="J3:J12" si="3">H3-I3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" t="e">
+        <f t="shared" ref="K3:K12" si="4">I3/E3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>28.5</v>
+      </c>
+      <c r="B4">
+        <v>0.92</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>180</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>29.5</v>
+      </c>
+      <c r="B5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>2300</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E12" si="5">AVERAGE(C5:D5)</f>
+        <v>2150</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F12" si="6">D5-E5</f>
+        <v>150</v>
+      </c>
+      <c r="I5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>1.2</v>
+      </c>
+      <c r="C6">
+        <v>5200</v>
+      </c>
+      <c r="D6">
+        <v>5800</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="5"/>
+        <v>5500</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="4"/>
+        <v>3.6363636363636362E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>30.5</v>
+      </c>
+      <c r="B7">
+        <v>1.2</v>
+      </c>
+      <c r="C7">
+        <v>11900</v>
+      </c>
+      <c r="D7">
+        <v>12500</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>12200</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="G7">
+        <v>650</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>825</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="4"/>
+        <v>6.7622950819672137E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>1.28</v>
+      </c>
+      <c r="C8">
+        <v>22800</v>
+      </c>
+      <c r="D8">
+        <v>23200</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="5"/>
+        <v>23000</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="G8">
+        <v>2200</v>
+      </c>
+      <c r="H8">
+        <v>3000</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>2600</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.11304347826086956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>30.75</v>
+      </c>
+      <c r="B9">
+        <v>1.24</v>
+      </c>
+      <c r="C9">
+        <v>16900</v>
+      </c>
+      <c r="D9">
+        <v>18100</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>17500</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="6"/>
+        <v>600</v>
+      </c>
+      <c r="G9">
+        <v>1060</v>
+      </c>
+      <c r="H9">
+        <v>1740</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>340</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>30.25</v>
+      </c>
+      <c r="B10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C10">
+        <v>7900</v>
+      </c>
+      <c r="D10">
+        <v>8500</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="5"/>
+        <v>8200</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="G10">
+        <v>330</v>
+      </c>
+      <c r="H10">
+        <v>560</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>445</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="4"/>
+        <v>5.4268292682926829E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>29.75</v>
+      </c>
+      <c r="B11">
+        <v>1.08</v>
+      </c>
+      <c r="C11">
+        <v>3000</v>
+      </c>
+      <c r="D11">
+        <v>3700</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>3350</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="6"/>
+        <v>350</v>
+      </c>
+      <c r="I11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>29.25</v>
+      </c>
+      <c r="B12">
+        <v>1.04</v>
+      </c>
+      <c r="C12">
+        <v>1100</v>
+      </c>
+      <c r="D12">
+        <v>1400</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="5"/>
+        <v>1250</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="I12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C551190-B8F8-4A21-AB9D-BE69A404F07B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>